--- a/DatabaseScript/Copy of aux_pilots_entries.xlsx
+++ b/DatabaseScript/Copy of aux_pilots_entries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dumitru.grosu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B419CD-D78D-491E-A3CD-2BE33EB65D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457D8E0B-3FFA-4925-915B-BE156D7CBFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>id_pilot</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>fakes</t>
+  </si>
+  <si>
+    <t>AMNGHELUTA ADRIAN</t>
+  </si>
+  <si>
+    <t>ANGHELUTA ADRIAN</t>
   </si>
 </sst>
 </file>
@@ -554,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H213"/>
+  <dimension ref="A1:H214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,196 +610,202 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1057</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+      <c r="A4">
+        <v>1573</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>1431</v>
+        <v>1057</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
+        <v>1431</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>1162</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>1503</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>1064</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>1326</v>
+        <v>1064</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>1275</v>
+        <v>1326</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>992</v>
+        <v>1275</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>1221</v>
+        <v>992</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>1456</v>
+        <v>1221</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>1247</v>
+        <v>1456</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>91</v>
+        <v>1247</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>1190</v>
+        <v>91</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>881</v>
+        <v>1190</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>23</v>
+        <v>881</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>503</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>1504</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -1046,9 +1058,9 @@
       <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
@@ -1066,15 +1078,15 @@
       <c r="C75" s="5"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="F76" s="4"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
+      <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
@@ -1147,9 +1159,9 @@
       <c r="C91" s="3"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
@@ -1157,9 +1169,9 @@
       <c r="C93" s="6"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
@@ -1756,6 +1768,11 @@
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
     </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="3"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
